--- a/crRNA_search_results_1_score.xlsx
+++ b/crRNA_search_results_1_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,45 +523,45 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CGGCCGCGGCGAGACGATAGGTTGTCGG</t>
+          <t>CATACCGATTTCGGCCCGGCCGCGGCGA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.022759437561035</v>
+        <v>-0.5385056138038635</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.029144287109375</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.029144287109375</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.450401782989502</v>
+        <v>-1.120486974716187</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.462272167205811</v>
+        <v>-2.208550691604614</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.475671291351318</v>
+        <v>-1.998649120330811</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.771471261978149</v>
+        <v>-1.934011220932007</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.789363622665405</v>
+        <v>-1.949359655380249</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.659831047058105</v>
+        <v>-1.942901849746704</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.029144287109375</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="P2" t="n">
-        <v>-3.029144525527954</v>
+        <v>-1.936606884002686</v>
       </c>
     </row>
     <row r="3">
@@ -577,45 +577,45 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CCGGCCGCGGCGAGACGATAGGTTGTCG</t>
+          <t>ACATACCGATTTCGGCCCGGCCGCGGCG</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.660317420959473</v>
+        <v>-0.8461284637451172</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.711489677429199</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.711489677429199</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.115490913391113</v>
+        <v>-0.8062493801116943</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.406758308410645</v>
+        <v>-1.005213499069214</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.299016714096069</v>
+        <v>-1.031890630722046</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.242504358291626</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.251642465591431</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.222482442855835</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.711489677429199</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.711489677429199</v>
+        <v>-0.9501147270202637</v>
       </c>
     </row>
     <row r="4">
@@ -631,45 +631,45 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CGGCCCGGCCGCGGCGAGACGATAGGTT</t>
+          <t>CGTGGACATACCGATTTCGGCCCGGCCG</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.576115369796753</v>
+        <v>-0.9421547651290894</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.769625663757324</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.769625663757324</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.59259033203125</v>
+        <v>-1.312683820724487</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.511377811431885</v>
+        <v>-1.342937469482422</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.345580577850342</v>
+        <v>-1.253211736679077</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.177125453948975</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.370119571685791</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.011093139648438</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.769625663757324</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.769625663757324</v>
+        <v>-1.316144227981567</v>
       </c>
     </row>
     <row r="5">
@@ -685,45 +685,45 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GGCCGCGGCGAGACGATAGGTTGTCGGG</t>
+          <t>GCTCGTGGACATACCGATTTCGGCCCGG</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.093732833862305</v>
+        <v>-0.9421848654747009</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.269021511077881</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.26902174949646</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.725306034088135</v>
+        <v>-0.8103470802307129</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.719779014587402</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.599256038665771</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.836822986602783</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.931644439697266</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.768180370330811</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.26902174949646</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.26902174949646</v>
+        <v>-0.8344695568084717</v>
       </c>
     </row>
     <row r="6">
@@ -739,45 +739,45 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CCGCGGCGAGACGATAGGTTGTCGGGGT</t>
+          <t>CTCGTGGACATACCGATTTCGGCCCGGC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.685254812240601</v>
+        <v>-0.9440845847129822</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.765043973922729</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.76504373550415</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.954052448272705</v>
+        <v>-0.9229958057403564</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.399652004241943</v>
+        <v>-0.9877715110778809</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.583569765090942</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.531601428985596</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.921354293823242</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.587246894836426</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.76504373550415</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.76504373550415</v>
+        <v>-0.9662027359008789</v>
       </c>
     </row>
     <row r="7">
@@ -793,45 +793,45 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CCCGGCCGCGGCGAGACGATAGGTTGTC</t>
+          <t>TTTCGGCCCGGCCGCGGCGAGACGATAG</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.565616130828857</v>
+        <v>-0.9482632279396057</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.714449167251587</v>
+        <v>-2.507508993148804</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.714448928833008</v>
+        <v>-2.507508993148804</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.112723827362061</v>
+        <v>-3.247195243835449</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.45929479598999</v>
+        <v>-2.704002857208252</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.060540676116943</v>
+        <v>-2.827816486358643</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.215058565139771</v>
+        <v>-2.246757984161377</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.343953609466553</v>
+        <v>-2.622062683105469</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.125576257705688</v>
+        <v>-2.237698554992676</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.714448928833008</v>
+        <v>-2.507508993148804</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.714448928833008</v>
+        <v>-2.507508754730225</v>
       </c>
     </row>
     <row r="8">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.408349990844727</v>
+        <v>-0.9543818831443787</v>
       </c>
       <c r="G8" t="n">
         <v>-2.523464918136597</v>
@@ -901,45 +901,45 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TTTCGGCCCGGCCGCGGCGAGACGATAG</t>
+          <t>GTGGACATACCGATTTCGGCCCGGCCGC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.377778768539429</v>
+        <v>-0.9619467854499817</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.507508754730225</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.507508993148804</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.247195243835449</v>
+        <v>-1.685588836669922</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.704002857208252</v>
+        <v>-1.796052694320679</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.827816486358643</v>
+        <v>-1.726428031921387</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.246757984161377</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.622062683105469</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.237698554992676</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.507508993148804</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.507508754730225</v>
+        <v>-1.743988275527954</v>
       </c>
     </row>
     <row r="10">
@@ -951,49 +951,49 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA1</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GGCCCGGCCGCGGCGAGACGATAGGTTG</t>
+          <t>CGTGGACATACCGATTTCGGCCCGGCCG</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.290126800537109</v>
+        <v>-0.9527416825294495</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.576521635055542</v>
+        <v>-1.312684059143066</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.576521635055542</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.937228202819824</v>
+        <v>-1.312683820724487</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.059430599212646</v>
+        <v>-1.342937469482422</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.315876007080078</v>
+        <v>-1.253211736679077</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.129015445709229</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.135713338851929</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.803232431411743</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.576521635055542</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.576521873474121</v>
+        <v>-1.316144227981567</v>
       </c>
     </row>
     <row r="11">
@@ -1005,49 +1005,49 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA1</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TCGGCCCGGCCGCGGCGAGACGATAGGT</t>
+          <t>GACATACCGATTTCGGCCCGGCCGCGGC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.096451282501221</v>
+        <v>-0.9759741425514221</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.489098310470581</v>
+        <v>-1.505338191986084</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.489098310470581</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.060558080673218</v>
+        <v>-1.505338191986084</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.013602018356323</v>
+        <v>-1.562613010406494</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.786231517791748</v>
+        <v>-1.549537658691406</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.731766700744629</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.036803245544434</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.697762012481689</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.489098310470581</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.489098310470581</v>
+        <v>-1.473490476608276</v>
       </c>
     </row>
     <row r="12">
@@ -1063,45 +1063,45 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CCGCGGCGATACGATAGGTTGTCGGGGT</t>
+          <t>GGACATACCGATTTCGGCCCGGCCGCGG</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.246033668518066</v>
+        <v>-1.01393985748291</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.643779993057251</v>
+        <v>-1.174022197723389</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.211449861526489</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.643779993057251</v>
+        <v>-1.174022197723389</v>
       </c>
       <c r="J12" t="n">
-        <v>-3.641089677810669</v>
+        <v>-1.252044439315796</v>
       </c>
       <c r="K12" t="n">
-        <v>-3.774786710739136</v>
+        <v>-1.189263105392456</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.765882968902588</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="M12" t="n">
-        <v>-3.890916347503662</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.786054372787476</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="O12" t="n">
-        <v>-3.211449861526489</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="P12" t="n">
-        <v>-3.211450099945068</v>
+        <v>-1.174515247344971</v>
       </c>
     </row>
     <row r="13">
@@ -1117,45 +1117,45 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GGCCGCGGCGATACGATAGGTTGTCGGG</t>
+          <t>TCGTGGACATACCGATTTCGGCCCGGCC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.822013854980469</v>
+        <v>-1.02147650718689</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.309582710266113</v>
+        <v>-1.259679794311523</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.419244766235352</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.309582233428955</v>
+        <v>-1.259679794311523</v>
       </c>
       <c r="J13" t="n">
-        <v>-3.789228439331055</v>
+        <v>-1.335345506668091</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.691724538803101</v>
+        <v>-1.253368139266968</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.789941072463989</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.82124137878418</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.762734413146973</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.419244766235352</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="P13" t="n">
-        <v>-3.419244766235352</v>
+        <v>-1.292388916015625</v>
       </c>
     </row>
     <row r="14">
@@ -1171,45 +1171,45 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CGGCCCGGCCGCGGCGATACGATAGGTT</t>
+          <t>TGGACATACCGATTTCGGCCCGGCCGCG</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.718832969665527</v>
+        <v>-1.050272107124329</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.867526531219482</v>
+        <v>-1.653317928314209</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.719140291213989</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.867526531219482</v>
+        <v>-1.653317928314209</v>
       </c>
       <c r="J14" t="n">
-        <v>-3.942736148834229</v>
+        <v>-1.735322952270508</v>
       </c>
       <c r="K14" t="n">
-        <v>-3.929770946502686</v>
+        <v>-1.726065158843994</v>
       </c>
       <c r="L14" t="n">
-        <v>-3.877479076385498</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="M14" t="n">
-        <v>-3.923014402389526</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.811174869537354</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.719140291213989</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.719140291213989</v>
+        <v>-1.6877121925354</v>
       </c>
     </row>
     <row r="15">
@@ -1225,45 +1225,45 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CGGCCGCGGCGATACGATAGGTTGTCGG</t>
+          <t>GCTCGTGGACATACCGATTTCGGCCCGG</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.664675712585449</v>
+        <v>-1.059536218643188</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.051261425018311</v>
+        <v>-0.8103470802307129</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.790627717971802</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="I15" t="n">
-        <v>-3.051261425018311</v>
+        <v>-0.8103470802307129</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.910395860671997</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.939932823181152</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.97593092918396</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.98111891746521</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.953848123550415</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="O15" t="n">
-        <v>-3.790627717971802</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="P15" t="n">
-        <v>-3.790627717971802</v>
+        <v>-0.8344695568084717</v>
       </c>
     </row>
     <row r="16">
@@ -1279,45 +1279,45 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CCGGCCGCGGCGATACGATAGGTTGTCG</t>
+          <t>GTGGACATACCGATTTCGGCCCGGCCGC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.621576309204102</v>
+        <v>-1.062286376953125</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.709845304489136</v>
+        <v>-1.685588836669922</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.563431978225708</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.709845066070557</v>
+        <v>-1.685588836669922</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.825243949890137</v>
+        <v>-1.796052694320679</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.858844041824341</v>
+        <v>-1.726428031921387</v>
       </c>
       <c r="L16" t="n">
-        <v>-3.789358377456665</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.797422170639038</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="N16" t="n">
-        <v>-3.773637294769287</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="O16" t="n">
-        <v>-3.563431978225708</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="P16" t="n">
-        <v>-3.563431978225708</v>
+        <v>-1.743988275527954</v>
       </c>
     </row>
     <row r="17">
@@ -1333,45 +1333,45 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ATTTCGGCCCGGCCGCGGCGATACGATA</t>
+          <t>CTCGTGGACATACCGATTTCGGCCCGGC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.599295139312744</v>
+        <v>-1.097517490386963</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.477303504943848</v>
+        <v>-0.9229960441589355</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.599030017852783</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="I17" t="n">
-        <v>-2.477303504943848</v>
+        <v>-0.9229958057403564</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.825007677078247</v>
+        <v>-0.9877715110778809</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.762142658233643</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="L17" t="n">
-        <v>-3.51297664642334</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.518647432327271</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.463112354278564</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.599030017852783</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="P17" t="n">
-        <v>-3.599030017852783</v>
+        <v>-0.9662027359008789</v>
       </c>
     </row>
     <row r="18">
@@ -1383,49 +1383,49 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>INH_inhA1</t>
+          <t>INH_inhA2</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GGCCCGGCCGCGGCGATACGATAGGTTG</t>
+          <t>ATACCGATTTCGGCCCGGCCGCGGCGAG</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.949814796447754</v>
+        <v>0.06011036410927773</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.630718946456909</v>
+        <v>-2.221733570098877</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.548799276351929</v>
+        <v>-1.022083759307861</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.630718946456909</v>
+        <v>-1.110547780990601</v>
       </c>
       <c r="J18" t="n">
-        <v>-3.033577442169189</v>
+        <v>-2.221733570098877</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.467036485671997</v>
+        <v>-1.058334827423096</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.130209684371948</v>
+        <v>-1.024391651153564</v>
       </c>
       <c r="M18" t="n">
-        <v>-3.174352884292603</v>
+        <v>-1.09652853012085</v>
       </c>
       <c r="N18" t="n">
-        <v>-2.836431980133057</v>
+        <v>-1.084714889526367</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.548799276351929</v>
+        <v>-1.022083759307861</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.548799276351929</v>
+        <v>-1.02208399772644</v>
       </c>
     </row>
     <row r="19">
@@ -1437,49 +1437,49 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>INH_inhA1</t>
+          <t>INH_inhA2</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CCCGGCCGCGGCGATACGATAGGTTGTC</t>
+          <t>CATACCGATTTCGGCCCGGCCGCGGCGA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.926785469055176</v>
+        <v>-0.3285438716411591</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.723211526870728</v>
+        <v>-2.208550453186035</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.567944526672363</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.723211526870728</v>
+        <v>-1.120486974716187</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.262179136276245</v>
+        <v>-2.208550691604614</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.040567398071289</v>
+        <v>-1.998649120330811</v>
       </c>
       <c r="L19" t="n">
-        <v>-3.115548849105835</v>
+        <v>-1.934011220932007</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.313892602920532</v>
+        <v>-1.949359655380249</v>
       </c>
       <c r="N19" t="n">
-        <v>-3.192185640335083</v>
+        <v>-1.942901849746704</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.567944526672363</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.567944526672363</v>
+        <v>-1.936606884002686</v>
       </c>
     </row>
     <row r="20">
@@ -1491,49 +1491,49 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>INH_inhA1</t>
+          <t>INH_inhA2</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TCGGCCCGGCCGCGGCGATACGATAGGT</t>
+          <t>ACATACCGATTTCGGCCCGGCCGCGGCG</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5551598072052</v>
+        <v>-0.736960232257843</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.489508628845215</v>
+        <v>-1.005213499069214</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.285323143005371</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.489508628845215</v>
+        <v>-0.8062493801116943</v>
       </c>
       <c r="J20" t="n">
-        <v>-3.157238960266113</v>
+        <v>-1.005213499069214</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.921669960021973</v>
+        <v>-1.031890630722046</v>
       </c>
       <c r="L20" t="n">
-        <v>-2.61767053604126</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="M20" t="n">
-        <v>-3.054009199142456</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.520161151885986</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.285323143005371</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="P20" t="n">
-        <v>-2.28532338142395</v>
+        <v>-0.9501147270202637</v>
       </c>
     </row>
     <row r="21">
@@ -1545,49 +1545,49 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>INH_inhA1</t>
+          <t>INH_inhA2</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GCCGCGGCGATACGATAGGTTGTCGGGG</t>
+          <t>GGACATACCGATTTCGGCCCGGCCGCGG</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.518696784973145</v>
+        <v>-0.8776594996452332</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.381704092025757</v>
+        <v>-1.252044439315796</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.172144889831543</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.381703615188599</v>
+        <v>-1.174022197723389</v>
       </c>
       <c r="J21" t="n">
-        <v>-2.721973896026611</v>
+        <v>-1.252044439315796</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.641271114349365</v>
+        <v>-1.189263105392456</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.753021717071533</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="M21" t="n">
-        <v>-3.213433027267456</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="N21" t="n">
-        <v>-2.867692232131958</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="O21" t="n">
-        <v>-2.172144889831543</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="P21" t="n">
-        <v>-2.172144651412964</v>
+        <v>-1.174515247344971</v>
       </c>
     </row>
     <row r="22">
@@ -1603,45 +1603,45 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CCGGCCGCGGCGAGGCGATAGGTTGTCG</t>
+          <t>TACCGATTTCGGCCCGGCCGCGGCGAGG</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.264052391052246</v>
+        <v>-0.8820564150810242</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.723079681396484</v>
+        <v>-1.077292919158936</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.356861591339111</v>
+        <v>-1.046767711639404</v>
       </c>
       <c r="I22" t="n">
-        <v>-3.593251943588257</v>
+        <v>-1.138885021209717</v>
       </c>
       <c r="J22" t="n">
-        <v>-2.723079919815063</v>
+        <v>-1.077293157577515</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.787824392318726</v>
+        <v>-0.9636201858520508</v>
       </c>
       <c r="L22" t="n">
-        <v>-3.683993816375732</v>
+        <v>-1.059032440185547</v>
       </c>
       <c r="M22" t="n">
-        <v>-3.69406795501709</v>
+        <v>-1.084292411804199</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.665620088577271</v>
+        <v>-1.090837240219116</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.356861591339111</v>
+        <v>-1.046767711639404</v>
       </c>
       <c r="P22" t="n">
-        <v>-3.356861591339111</v>
+        <v>-1.046767950057983</v>
       </c>
     </row>
     <row r="23">
@@ -1657,45 +1657,45 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CGGCCGCGGCGAGGCGATAGGTTGTCGG</t>
+          <t>GACATACCGATTTCGGCCCGGCCGCGGC</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.21095085144043</v>
+        <v>-0.8974394202232361</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.137042045593262</v>
+        <v>-1.562613010406494</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.537038326263428</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="I23" t="n">
-        <v>-3.755686521530151</v>
+        <v>-1.505338191986084</v>
       </c>
       <c r="J23" t="n">
-        <v>-3.137042045593262</v>
+        <v>-1.562613010406494</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.839537858963013</v>
+        <v>-1.549537658691406</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.925285816192627</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.932667970657349</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="N23" t="n">
-        <v>-3.875508546829224</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="O23" t="n">
-        <v>-3.537038326263428</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="P23" t="n">
-        <v>-3.537038326263428</v>
+        <v>-1.473490476608276</v>
       </c>
     </row>
     <row r="24">
@@ -1711,45 +1711,45 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CGGCCCGGCCGCGGCGAGGCGATAGGTT</t>
+          <t>TCGTGGACATACCGATTTCGGCCCGGCC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.861473798751831</v>
+        <v>-0.8974880576133728</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.845345973968506</v>
+        <v>-1.335345506668091</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.162061452865601</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="I24" t="n">
-        <v>-3.844823837280273</v>
+        <v>-1.259679794311523</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.845345973968506</v>
+        <v>-1.335345506668091</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.693196296691895</v>
+        <v>-1.253368139266968</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.532694578170776</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="M24" t="n">
-        <v>-3.666842937469482</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="N24" t="n">
-        <v>-3.368932008743286</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.162061452865601</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="P24" t="n">
-        <v>-3.162061452865601</v>
+        <v>-1.292388916015625</v>
       </c>
     </row>
     <row r="25">
@@ -1765,45 +1765,45 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GGCCGCGGCGAGGCGATAGGTTGTCGGG</t>
+          <t>GTGGACATACCGATTTCGGCCCGGCCGC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.530061006546021</v>
+        <v>-0.9024589657783508</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.36124062538147</v>
+        <v>-1.796052932739258</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.692840099334717</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="I25" t="n">
-        <v>-3.332644701004028</v>
+        <v>-1.685588836669922</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.36124062538147</v>
+        <v>-1.796052694320679</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.176134347915649</v>
+        <v>-1.726428031921387</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.327729463577271</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.397706270217896</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="N25" t="n">
-        <v>-3.263714790344238</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="O25" t="n">
-        <v>-2.692840099334717</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="P25" t="n">
-        <v>-2.692840337753296</v>
+        <v>-1.743988275527954</v>
       </c>
     </row>
     <row r="26">
@@ -1815,49 +1815,49 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>INH_inhA2</t>
+          <t>INH_inhA3</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CCGCGGCGAGGCGATAGGTTGTCGGGGT</t>
+          <t>CATACCGATTTCGGCCCGGCCGCGGCGA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.435925960540771</v>
+        <v>-0.4855733215808868</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.883065700531006</v>
+        <v>-1.998649120330811</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.327461242675781</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="I26" t="n">
-        <v>-2.539643526077271</v>
+        <v>-1.120486974716187</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.883065700531006</v>
+        <v>-2.208550691604614</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.214585304260254</v>
+        <v>-1.998649120330811</v>
       </c>
       <c r="L26" t="n">
-        <v>-3.138852119445801</v>
+        <v>-1.934011220932007</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.503015041351318</v>
+        <v>-1.949359655380249</v>
       </c>
       <c r="N26" t="n">
-        <v>-3.225625514984131</v>
+        <v>-1.942901849746704</v>
       </c>
       <c r="O26" t="n">
-        <v>-2.327461242675781</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="P26" t="n">
-        <v>-2.327461242675781</v>
+        <v>-1.936606884002686</v>
       </c>
     </row>
     <row r="27">
@@ -1869,49 +1869,49 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>INH_inhA2</t>
+          <t>INH_inhA3</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TTTCGGCCCGGCCGCGGCGAGGCGATAG</t>
+          <t>ACATACCGATTTCGGCCCGGCCGCGGCG</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.360269784927368</v>
+        <v>-0.6877464056015015</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.47358512878418</v>
+        <v>-1.031890630722046</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.973674774169922</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="I27" t="n">
-        <v>-3.697901964187622</v>
+        <v>-0.8062493801116943</v>
       </c>
       <c r="J27" t="n">
-        <v>-2.47358512878418</v>
+        <v>-1.005213499069214</v>
       </c>
       <c r="K27" t="n">
-        <v>-3.350100994110107</v>
+        <v>-1.031890630722046</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.736207485198975</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="M27" t="n">
-        <v>-3.079590320587158</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.748407125473022</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="O27" t="n">
-        <v>-2.973674774169922</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="P27" t="n">
-        <v>-2.973675012588501</v>
+        <v>-0.9501147270202637</v>
       </c>
     </row>
     <row r="28">
@@ -1923,49 +1923,49 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>INH_inhA2</t>
+          <t>INH_inhA3</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ATTTCGGCCCGGCCGCGGCGAGGCGATA</t>
+          <t>ACCGATTTCGGCCCGGCCGCGGCGAGAT</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.22681188583374</v>
+        <v>-0.8735823035240173</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.515407562255859</v>
+        <v>-1.668124198913574</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.933287858963013</v>
+        <v>-1.553801298141479</v>
       </c>
       <c r="I28" t="n">
-        <v>-3.746550559997559</v>
+        <v>-1.792192935943604</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.515407562255859</v>
+        <v>-1.992810010910034</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.253435134887695</v>
+        <v>-1.668124198913574</v>
       </c>
       <c r="L28" t="n">
-        <v>-2.764940977096558</v>
+        <v>-1.507153987884521</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.803218841552734</v>
+        <v>-1.52951717376709</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.707411766052246</v>
+        <v>-1.482390403747559</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.933287858963013</v>
+        <v>-1.553801298141479</v>
       </c>
       <c r="P28" t="n">
-        <v>-2.933288097381592</v>
+        <v>-1.553801298141479</v>
       </c>
     </row>
     <row r="29">
@@ -1977,49 +1977,49 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>INH_inhA2</t>
+          <t>INH_inhA3</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GGCCCGGCCGCGGCGAGGCGATAGGTTG</t>
+          <t>GACATACCGATTTCGGCCCGGCCGCGGC</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.758769273757935</v>
+        <v>-0.9148568511009216</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.544743299484253</v>
+        <v>-1.549537658691406</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.926801443099976</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.314448356628418</v>
+        <v>-1.505338191986084</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.544743299484253</v>
+        <v>-1.562613010406494</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.884607553482056</v>
+        <v>-1.549537658691406</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.480323076248169</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.491848945617676</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.162237405776978</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.926801443099976</v>
+        <v>-1.473490476608276</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.926801443099976</v>
+        <v>-1.473490476608276</v>
       </c>
     </row>
     <row r="30">
@@ -2031,49 +2031,49 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INH_inhA2</t>
+          <t>INH_inhA3</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CCCGGCCGCGGCGAGGCGATAGGTTGTC</t>
+          <t>TGGACATACCGATTTCGGCCCGGCCGCG</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.531337738037109</v>
+        <v>-0.936910092830658</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.718719005584717</v>
+        <v>-1.726065158843994</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.922108888626099</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.230178356170654</v>
+        <v>-1.653317928314209</v>
       </c>
       <c r="J30" t="n">
-        <v>-1.718719005584717</v>
+        <v>-1.735322952270508</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.3299400806427</v>
+        <v>-1.726065158843994</v>
       </c>
       <c r="L30" t="n">
-        <v>-2.44792652130127</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="M30" t="n">
-        <v>-2.612107753753662</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.425429105758667</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="O30" t="n">
-        <v>-1.922108888626099</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="P30" t="n">
-        <v>-1.92210865020752</v>
+        <v>-1.6877121925354</v>
       </c>
     </row>
     <row r="31">
@@ -2085,49 +2085,49 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>INH_inhA2</t>
+          <t>INH_inhA3</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GCCGCGGCGAGGCGATAGGTTGTCGGGG</t>
+          <t>GCTCGTGGACATACCGATTTCGGCCCGG</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.443967819213867</v>
+        <v>-0.9421848654747009</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.410671710968018</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.710509300231934</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.033278703689575</v>
+        <v>-0.8103470802307129</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.410671710968018</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.233397960662842</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.173724174499512</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="M31" t="n">
-        <v>-2.528463840484619</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.185408115386963</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.710509300231934</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.710509061813354</v>
+        <v>-0.8344695568084717</v>
       </c>
     </row>
     <row r="32">
@@ -2143,45 +2143,45 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CGGCCCGGCCGCGGCGAGATGATAGGTT</t>
+          <t>CTCGTGGACATACCGATTTCGGCCCGGC</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.376304149627686</v>
+        <v>-0.9440845847129822</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.771011829376221</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.421969890594482</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.923869609832764</v>
+        <v>-0.9229958057403564</v>
       </c>
       <c r="J32" t="n">
-        <v>-3.930920839309692</v>
+        <v>-0.9877715110778809</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.771011829376221</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="L32" t="n">
-        <v>-3.697901248931885</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="M32" t="n">
-        <v>-3.793127298355103</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.584289312362671</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="O32" t="n">
-        <v>-3.421969890594482</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="P32" t="n">
-        <v>-3.421969890594482</v>
+        <v>-0.9662027359008789</v>
       </c>
     </row>
     <row r="33">
@@ -2197,45 +2197,45 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CGGCCGCGGCGAGATGATAGGTTGTCGG</t>
+          <t>GGACATACCGATTTCGGCCCGGCCGCGG</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.309550285339355</v>
+        <v>-0.985579788684845</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.069022655487061</v>
+        <v>-1.189263105392456</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.551593542098999</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="I33" t="n">
-        <v>-3.816076278686523</v>
+        <v>-1.174022197723389</v>
       </c>
       <c r="J33" t="n">
-        <v>-3.826852798461914</v>
+        <v>-1.252044439315796</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.069022655487061</v>
+        <v>-1.189263105392456</v>
       </c>
       <c r="L33" t="n">
-        <v>-3.935195446014404</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="M33" t="n">
-        <v>-3.943374872207642</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.888782501220703</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="O33" t="n">
-        <v>-3.551593542098999</v>
+        <v>-1.174515247344971</v>
       </c>
       <c r="P33" t="n">
-        <v>-3.551593542098999</v>
+        <v>-1.174515247344971</v>
       </c>
     </row>
     <row r="34">
@@ -2247,49 +2247,49 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>INH_inhA3</t>
+          <t>INH_inhA4</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CCGGCCGCGGCGAGATGATAGGTTGTCG</t>
+          <t>CATACCGATTTCGGCCCGGCCGCGGCGA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.883861541748047</v>
+        <v>-0.5407938957214355</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.927115440368652</v>
+        <v>-1.934011220932007</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.22740650177002</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.575541257858276</v>
+        <v>-1.120486974716187</v>
       </c>
       <c r="J34" t="n">
-        <v>-3.808933019638062</v>
+        <v>-2.208550691604614</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.927115440368652</v>
+        <v>-1.998649120330811</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.629603862762451</v>
+        <v>-1.934011220932007</v>
       </c>
       <c r="M34" t="n">
-        <v>-3.640681982040405</v>
+        <v>-1.949359655380249</v>
       </c>
       <c r="N34" t="n">
-        <v>-3.619255781173706</v>
+        <v>-1.942901849746704</v>
       </c>
       <c r="O34" t="n">
-        <v>-3.22740650177002</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="P34" t="n">
-        <v>-3.22740650177002</v>
+        <v>-1.936606884002686</v>
       </c>
     </row>
     <row r="35">
@@ -2301,49 +2301,49 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>INH_inhA3</t>
+          <t>INH_inhA4</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ATTTCGGCCCGGCCGCGGCGAGATGATA</t>
+          <t>ACATACCGATTTCGGCCCGGCCGCGGCG</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.739181280136108</v>
+        <v>-0.8461284637451172</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.565199375152588</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.215756416320801</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.833184957504272</v>
+        <v>-0.8062493801116943</v>
       </c>
       <c r="J35" t="n">
-        <v>-3.517353296279907</v>
+        <v>-1.005213499069214</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.565199375152588</v>
+        <v>-1.031890630722046</v>
       </c>
       <c r="L35" t="n">
-        <v>-3.070505857467651</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="M35" t="n">
-        <v>-3.099247932434082</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="N35" t="n">
-        <v>-3.012890577316284</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="O35" t="n">
-        <v>-3.215756416320801</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="P35" t="n">
-        <v>-3.215756893157959</v>
+        <v>-0.9501147270202637</v>
       </c>
     </row>
     <row r="36">
@@ -2355,49 +2355,49 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>INH_inhA3</t>
+          <t>INH_inhA4</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GGCCGCGGCGAGATGATAGGTTGTCGGG</t>
+          <t>CGTGGACATACCGATTTCGGCCCGGCCG</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.700750827789307</v>
+        <v>-0.9421547651290894</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.276371955871582</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.723186254501343</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="I36" t="n">
-        <v>-3.307015419006348</v>
+        <v>-1.312683820724487</v>
       </c>
       <c r="J36" t="n">
-        <v>-3.479000329971313</v>
+        <v>-1.342937469482422</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.276371955871582</v>
+        <v>-1.253211736679077</v>
       </c>
       <c r="L36" t="n">
-        <v>-3.336544752120972</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="M36" t="n">
-        <v>-3.405560493469238</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="N36" t="n">
-        <v>-3.272312641143799</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="O36" t="n">
-        <v>-2.723186254501343</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="P36" t="n">
-        <v>-2.723186254501343</v>
+        <v>-1.316144227981567</v>
       </c>
     </row>
     <row r="37">
@@ -2409,49 +2409,49 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>INH_inhA3</t>
+          <t>INH_inhA4</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GGCCCGGCCGCGGCGAGATGATAGGTTG</t>
+          <t>GCTCGTGGACATACCGATTTCGGCCCGG</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.662775993347168</v>
+        <v>-0.9421848654747009</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.62400484085083</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.376815319061279</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.054691076278687</v>
+        <v>-0.8103470802307129</v>
       </c>
       <c r="J37" t="n">
-        <v>-3.207076072692871</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.62400484085083</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.0010826587677</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.081283092498779</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="N37" t="n">
-        <v>-2.738846302032471</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="O37" t="n">
-        <v>-2.376815319061279</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="P37" t="n">
-        <v>-2.376815319061279</v>
+        <v>-0.8344695568084717</v>
       </c>
     </row>
     <row r="38">
@@ -2463,49 +2463,49 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>INH_inhA3</t>
+          <t>INH_inhA4</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TTTCGGCCCGGCCGCGGCGAGATGATAG</t>
+          <t>CTCGTGGACATACCGATTTCGGCCCGGC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.444129228591919</v>
+        <v>-0.9440845847129822</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.506568670272827</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.023707389831543</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="I38" t="n">
-        <v>-3.784512996673584</v>
+        <v>-0.9229958057403564</v>
       </c>
       <c r="J38" t="n">
-        <v>-3.47816276550293</v>
+        <v>-0.9877715110778809</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.506568670272827</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="L38" t="n">
-        <v>-2.784774303436279</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="M38" t="n">
-        <v>-3.132806301116943</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="N38" t="n">
-        <v>-2.791575908660889</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="O38" t="n">
-        <v>-3.023707389831543</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="P38" t="n">
-        <v>-3.023707389831543</v>
+        <v>-0.9662027359008789</v>
       </c>
     </row>
     <row r="39">
@@ -2517,49 +2517,49 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>INH_inhA3</t>
+          <t>INH_inhA4</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CCCGGCCGCGGCGAGATGATAGGTTGTC</t>
+          <t>GTGGACATACCGATTTCGGCCCGGCCGC</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.119027853012085</v>
+        <v>-0.9619467854499817</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.820935726165771</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.209240913391113</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.659168720245361</v>
+        <v>-1.685588836669922</v>
       </c>
       <c r="J39" t="n">
-        <v>-3.2027428150177</v>
+        <v>-1.796052694320679</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.820935964584351</v>
+        <v>-1.726428031921387</v>
       </c>
       <c r="L39" t="n">
-        <v>-2.717803716659546</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="M39" t="n">
-        <v>-2.888668060302734</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="N39" t="n">
-        <v>-2.706711769104004</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="O39" t="n">
-        <v>-2.209240913391113</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="P39" t="n">
-        <v>-2.209240913391113</v>
+        <v>-1.743988275527954</v>
       </c>
     </row>
     <row r="40">
@@ -2571,49 +2571,49 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>INH_inhA3</t>
+          <t>INH_inhA4</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CCGCGGCGAGATGATAGGTTGTCGGGGT</t>
+          <t>TCGTGGACATACCGATTTCGGCCCGGCC</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.116923570632935</v>
+        <v>-0.9623860120773315</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.800681114196777</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.126057147979736</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="I40" t="n">
-        <v>-2.395619869232178</v>
+        <v>-1.259679794311523</v>
       </c>
       <c r="J40" t="n">
-        <v>-2.929115295410156</v>
+        <v>-1.335345506668091</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.800681352615356</v>
+        <v>-1.253368139266968</v>
       </c>
       <c r="L40" t="n">
-        <v>-2.93340015411377</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="M40" t="n">
-        <v>-3.342710971832275</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="N40" t="n">
-        <v>-3.022381782531738</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="O40" t="n">
-        <v>-2.126057147979736</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="P40" t="n">
-        <v>-2.126057147979736</v>
+        <v>-1.292388916015625</v>
       </c>
     </row>
     <row r="41">
@@ -2625,49 +2625,49 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>INH_inhA3</t>
+          <t>INH_inhA4</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>GCCCGGCCGCGGCGAGATGATAGGTTGT</t>
+          <t>TGGACATACCGATTTCGGCCCGGCCGCG</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.67210578918457</v>
+        <v>-0.989806056022644</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.347072839736938</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.785575389862061</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="I41" t="n">
-        <v>-2.155009031295776</v>
+        <v>-1.653317928314209</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.496026039123535</v>
+        <v>-1.735322952270508</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.347072839736938</v>
+        <v>-1.726065158843994</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.452605724334717</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.385979890823364</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="N41" t="n">
-        <v>-2.126422882080078</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="O41" t="n">
-        <v>-1.785575389862061</v>
+        <v>-1.6877121925354</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.785575389862061</v>
+        <v>-1.6877121925354</v>
       </c>
     </row>
     <row r="42">
@@ -2679,49 +2679,49 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA5</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CGGCCGCGGCGAGACGATAGGATGTCGG</t>
+          <t>TTCGGCCCGGCCGCGGCGAGACGATAGG</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4.087204933166504</v>
+        <v>-0.03993918374180794</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.102301120758057</v>
+        <v>-2.534428119659424</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.78880763053894</v>
+        <v>-1.259676218032837</v>
       </c>
       <c r="I42" t="n">
-        <v>-3.915123701095581</v>
+        <v>-1.686292171478271</v>
       </c>
       <c r="J42" t="n">
-        <v>-3.916551828384399</v>
+        <v>-1.492547273635864</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.933568000793457</v>
+        <v>-1.566036224365234</v>
       </c>
       <c r="L42" t="n">
-        <v>-3.102300882339478</v>
+        <v>-1.223499298095703</v>
       </c>
       <c r="M42" t="n">
-        <v>-3.392759561538696</v>
+        <v>-2.534428119659424</v>
       </c>
       <c r="N42" t="n">
-        <v>-3.83366870880127</v>
+        <v>-1.244859933853149</v>
       </c>
       <c r="O42" t="n">
-        <v>-3.78880763053894</v>
+        <v>-1.259676218032837</v>
       </c>
       <c r="P42" t="n">
-        <v>-3.78880763053894</v>
+        <v>-1.259676218032837</v>
       </c>
     </row>
     <row r="43">
@@ -2733,49 +2733,49 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA5</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CCGGCCGCGGCGAGACGATAGGATGTCG</t>
+          <t>CATACCGATTTCGGCCCGGCCGCGGCGA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.862279891967773</v>
+        <v>-0.5273503065109253</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.797637462615967</v>
+        <v>-1.94935941696167</v>
       </c>
       <c r="H43" t="n">
-        <v>-3.419377326965332</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="I43" t="n">
-        <v>-3.693264007568359</v>
+        <v>-1.120486974716187</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.828537940979004</v>
+        <v>-2.208550691604614</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.795404434204102</v>
+        <v>-1.998649120330811</v>
       </c>
       <c r="L43" t="n">
-        <v>-2.797637462615967</v>
+        <v>-1.934011220932007</v>
       </c>
       <c r="M43" t="n">
-        <v>-3.114648103713989</v>
+        <v>-1.949359655380249</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.420383453369141</v>
+        <v>-1.942901849746704</v>
       </c>
       <c r="O43" t="n">
-        <v>-3.419377326965332</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="P43" t="n">
-        <v>-3.419377326965332</v>
+        <v>-1.936606884002686</v>
       </c>
     </row>
     <row r="44">
@@ -2787,49 +2787,49 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA5</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CCGCGGCGAGACGATAGGATGTCGGGGT</t>
+          <t>ACATACCGATTTCGGCCCGGCCGCGGCG</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.683745145797729</v>
+        <v>-0.8461284637451172</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.670172691345215</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.650985717773438</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="I44" t="n">
-        <v>-2.903927326202393</v>
+        <v>-0.8062493801116943</v>
       </c>
       <c r="J44" t="n">
-        <v>-3.301209688186646</v>
+        <v>-1.005213499069214</v>
       </c>
       <c r="K44" t="n">
-        <v>-3.481165409088135</v>
+        <v>-1.031890630722046</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.670172691345215</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="M44" t="n">
-        <v>-2.475309371948242</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="N44" t="n">
-        <v>-2.472987174987793</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="O44" t="n">
-        <v>-2.650985717773438</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="P44" t="n">
-        <v>-2.650985956192017</v>
+        <v>-0.9501147270202637</v>
       </c>
     </row>
     <row r="45">
@@ -2841,49 +2841,49 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA5</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CGGCCCGGCCGCGGCGAGACGATAGGAT</t>
+          <t>TTTCGGCCCGGCCGCGGCGAGACGATAG</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.675073146820068</v>
+        <v>-0.8558652997016907</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.722598075866699</v>
+        <v>-2.622062683105469</v>
       </c>
       <c r="H45" t="n">
-        <v>-3.101130723953247</v>
+        <v>-2.507508993148804</v>
       </c>
       <c r="I45" t="n">
-        <v>-3.767268657684326</v>
+        <v>-3.247195243835449</v>
       </c>
       <c r="J45" t="n">
-        <v>-3.719114303588867</v>
+        <v>-2.704002857208252</v>
       </c>
       <c r="K45" t="n">
-        <v>-3.584302663803101</v>
+        <v>-2.827816486358643</v>
       </c>
       <c r="L45" t="n">
-        <v>-2.722598075866699</v>
+        <v>-2.246757984161377</v>
       </c>
       <c r="M45" t="n">
-        <v>-3.275315046310425</v>
+        <v>-2.622062683105469</v>
       </c>
       <c r="N45" t="n">
-        <v>-2.991270780563354</v>
+        <v>-2.237698554992676</v>
       </c>
       <c r="O45" t="n">
-        <v>-3.101130723953247</v>
+        <v>-2.507508993148804</v>
       </c>
       <c r="P45" t="n">
-        <v>-3.101130962371826</v>
+        <v>-2.507508754730225</v>
       </c>
     </row>
     <row r="46">
@@ -2895,49 +2895,49 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA5</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>GGCCGCGGCGAGACGATAGGATGTCGGG</t>
+          <t>CGTGGACATACCGATTTCGGCCCGGCCG</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.561341047286987</v>
+        <v>-0.9421547651290894</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.304524898529053</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="H46" t="n">
-        <v>-3.223728656768799</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.611027717590332</v>
+        <v>-1.312683820724487</v>
       </c>
       <c r="J46" t="n">
-        <v>-3.620827436447144</v>
+        <v>-1.342937469482422</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.51171088218689</v>
+        <v>-1.253211736679077</v>
       </c>
       <c r="L46" t="n">
-        <v>-2.304524898529053</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="M46" t="n">
-        <v>-2.587556838989258</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.11500072479248</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="O46" t="n">
-        <v>-3.223728656768799</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="P46" t="n">
-        <v>-3.223728895187378</v>
+        <v>-1.316144227981567</v>
       </c>
     </row>
     <row r="47">
@@ -2949,49 +2949,49 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA5</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CCCGGCCGCGGCGAGACGATAGGATGTC</t>
+          <t>GCTCGTGGACATACCGATTTCGGCCCGG</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.007362365722656</v>
+        <v>-0.9421848654747009</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.746459484100342</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.393878936767578</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="I47" t="n">
-        <v>-2.809195041656494</v>
+        <v>-0.8103470802307129</v>
       </c>
       <c r="J47" t="n">
-        <v>-3.304997205734253</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.829640865325928</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.746459484100342</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="M47" t="n">
-        <v>-2.135284185409546</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.238230228424072</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="O47" t="n">
-        <v>-2.393878936767578</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="P47" t="n">
-        <v>-2.393878936767578</v>
+        <v>-0.8344695568084717</v>
       </c>
     </row>
     <row r="48">
@@ -3003,49 +3003,49 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA5</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TTTCGGCCCGGCCGCGGCGAGACGATAG</t>
+          <t>CTCGTGGACATACCGATTTCGGCCCGGC</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.68198823928833</v>
+        <v>-0.9440845847129822</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.246757984161377</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.507508993148804</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="I48" t="n">
-        <v>-3.247195243835449</v>
+        <v>-0.9229958057403564</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.704002857208252</v>
+        <v>-0.9877715110778809</v>
       </c>
       <c r="K48" t="n">
-        <v>-2.827816486358643</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="L48" t="n">
-        <v>-2.246757984161377</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="M48" t="n">
-        <v>-2.622062683105469</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="N48" t="n">
-        <v>-2.237698554992676</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="O48" t="n">
-        <v>-2.507508993148804</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="P48" t="n">
-        <v>-2.507508754730225</v>
+        <v>-0.9662027359008789</v>
       </c>
     </row>
     <row r="49">
@@ -3057,49 +3057,49 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA5</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ATTTCGGCCCGGCCGCGGCGAGACGATA</t>
+          <t>GTGGACATACCGATTTCGGCCCGGCCGC</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.645572900772095</v>
+        <v>-0.9619467854499817</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.320130825042725</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.523464918136597</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.382231712341309</v>
+        <v>-1.685588836669922</v>
       </c>
       <c r="J49" t="n">
-        <v>-2.869561195373535</v>
+        <v>-1.796052694320679</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.832889080047607</v>
+        <v>-1.726428031921387</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.320130825042725</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="M49" t="n">
-        <v>-2.384963512420654</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="N49" t="n">
-        <v>-2.257301807403564</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="O49" t="n">
-        <v>-2.523464918136597</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="P49" t="n">
-        <v>-2.523465156555176</v>
+        <v>-1.743988275527954</v>
       </c>
     </row>
     <row r="50">
@@ -3111,49 +3111,49 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA6</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>GCCGCGGCGAGACGATAGGATGTCGGGG</t>
+          <t>CATACCGATTTCGGCCCGGCCGCGGCGA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.517530202865601</v>
+        <v>-0.5329806208610535</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.364895343780518</v>
+        <v>-1.942901849746704</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.950571537017822</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="I50" t="n">
-        <v>-2.194257736206055</v>
+        <v>-1.120486974716187</v>
       </c>
       <c r="J50" t="n">
-        <v>-2.495316505432129</v>
+        <v>-2.208550691604614</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.344346046447754</v>
+        <v>-1.998649120330811</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.364895343780518</v>
+        <v>-1.934011220932007</v>
       </c>
       <c r="M50" t="n">
-        <v>-1.892721652984619</v>
+        <v>-1.949359655380249</v>
       </c>
       <c r="N50" t="n">
-        <v>-1.773905754089355</v>
+        <v>-1.942901849746704</v>
       </c>
       <c r="O50" t="n">
-        <v>-1.950571537017822</v>
+        <v>-1.936606645584106</v>
       </c>
       <c r="P50" t="n">
-        <v>-1.950571537017822</v>
+        <v>-1.936606884002686</v>
       </c>
     </row>
     <row r="51">
@@ -3165,49 +3165,49 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>INH_inhA4</t>
+          <t>INH_inhA6</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TCGGCCCGGCCGCGGCGAGACGATAGGA</t>
+          <t>ACATACCGATTTCGGCCCGGCCGCGGCG</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.490527391433716</v>
+        <v>-0.8461284637451172</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.517643451690674</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.87938928604126</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="I51" t="n">
-        <v>-2.52255916595459</v>
+        <v>-0.8062493801116943</v>
       </c>
       <c r="J51" t="n">
-        <v>-2.500896453857422</v>
+        <v>-1.005213499069214</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.279995203018188</v>
+        <v>-1.031890630722046</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.517643451690674</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.120089292526245</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.820870876312256</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="O51" t="n">
-        <v>-1.87938928604126</v>
+        <v>-0.9501147270202637</v>
       </c>
       <c r="P51" t="n">
-        <v>-1.87938928604126</v>
+        <v>-0.9501147270202637</v>
       </c>
     </row>
     <row r="52">
@@ -3219,49 +3219,49 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>INH_inhA5</t>
+          <t>INH_inhA6</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CGGCCGCGGCGAGACGATAGGGTGTCGG</t>
+          <t>CGTGGACATACCGATTTCGGCCCGGCCG</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.387027263641357</v>
+        <v>-0.9421547651290894</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.042337656021118</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="H52" t="n">
-        <v>-3.686429023742676</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="I52" t="n">
-        <v>-3.863426446914673</v>
+        <v>-1.312683820724487</v>
       </c>
       <c r="J52" t="n">
-        <v>-3.870517253875732</v>
+        <v>-1.342937469482422</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.888331651687622</v>
+        <v>-1.253211736679077</v>
       </c>
       <c r="L52" t="n">
-        <v>-3.631910800933838</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="M52" t="n">
-        <v>-3.042337417602539</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="N52" t="n">
-        <v>-3.844110250473022</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="O52" t="n">
-        <v>-3.686429023742676</v>
+        <v>-1.316144466400146</v>
       </c>
       <c r="P52" t="n">
-        <v>-3.686429023742676</v>
+        <v>-1.316144227981567</v>
       </c>
     </row>
     <row r="53">
@@ -3273,49 +3273,49 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>INH_inhA5</t>
+          <t>INH_inhA6</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CCGGCCGCGGCGAGACGATAGGGTGTCG</t>
+          <t>GCTCGTGGACATACCGATTTCGGCCCGG</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.96941089630127</v>
+        <v>-0.9421848654747009</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.787994146347046</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="H53" t="n">
-        <v>-3.346328258514404</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="I53" t="n">
-        <v>-3.639585494995117</v>
+        <v>-0.8103470802307129</v>
       </c>
       <c r="J53" t="n">
-        <v>-3.793116569519043</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="K53" t="n">
-        <v>-3.752981901168823</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="L53" t="n">
-        <v>-3.217280864715576</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="M53" t="n">
-        <v>-2.787993907928467</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="N53" t="n">
-        <v>-3.491453170776367</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="O53" t="n">
-        <v>-3.346328258514404</v>
+        <v>-0.8344695568084717</v>
       </c>
       <c r="P53" t="n">
-        <v>-3.346328258514404</v>
+        <v>-0.8344695568084717</v>
       </c>
     </row>
     <row r="54">
@@ -3327,49 +3327,49 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>INH_inhA5</t>
+          <t>INH_inhA6</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GGCCGCGGCGAGACGATAGGGTGTCGGG</t>
+          <t>CTCGTGGACATACCGATTTCGGCCCGGC</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.610884666442871</v>
+        <v>-0.9440845847129822</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.437506198883057</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="H54" t="n">
-        <v>-3.16601037979126</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="I54" t="n">
-        <v>-3.55655312538147</v>
+        <v>-0.9229958057403564</v>
       </c>
       <c r="J54" t="n">
-        <v>-3.566465854644775</v>
+        <v>-0.9877715110778809</v>
       </c>
       <c r="K54" t="n">
-        <v>-3.45946216583252</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="L54" t="n">
-        <v>-2.752461910247803</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="M54" t="n">
-        <v>-2.437505722045898</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="N54" t="n">
-        <v>-3.274620056152344</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="O54" t="n">
-        <v>-3.16601037979126</v>
+        <v>-0.9662027359008789</v>
       </c>
       <c r="P54" t="n">
-        <v>-3.16601037979126</v>
+        <v>-0.9662027359008789</v>
       </c>
     </row>
     <row r="55">
@@ -3381,49 +3381,49 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>INH_inhA5</t>
+          <t>INH_inhA6</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CGGCCCGGCCGCGGCGAGACGATAGGGT</t>
+          <t>GTGGACATACCGATTTCGGCCCGGCCGC</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.38432502746582</v>
+        <v>-0.9619467854499817</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.748086452484131</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.930584907531738</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="I55" t="n">
-        <v>-3.673856258392334</v>
+        <v>-1.685588836669922</v>
       </c>
       <c r="J55" t="n">
-        <v>-3.607081174850464</v>
+        <v>-1.796052694320679</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.45455002784729</v>
+        <v>-1.726428031921387</v>
       </c>
       <c r="L55" t="n">
-        <v>-2.881637334823608</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="M55" t="n">
-        <v>-2.748086452484131</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="N55" t="n">
-        <v>-2.956936597824097</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="O55" t="n">
-        <v>-2.930584907531738</v>
+        <v>-1.743988275527954</v>
       </c>
       <c r="P55" t="n">
-        <v>-2.930585145950317</v>
+        <v>-1.743988275527954</v>
       </c>
     </row>
     <row r="56">
@@ -3435,49 +3435,49 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>INH_inhA5</t>
+          <t>INH_inhA6</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CCGCGGCGAGACGATAGGGTGTCGGGGT</t>
+          <t>TCGTGGACATACCGATTTCGGCCCGGCC</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.147114992141724</v>
+        <v>-0.9623860120773315</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.74028491973877</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.516365528106689</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="I56" t="n">
-        <v>-2.749342918395996</v>
+        <v>-1.259679794311523</v>
       </c>
       <c r="J56" t="n">
-        <v>-3.160823345184326</v>
+        <v>-1.335345506668091</v>
       </c>
       <c r="K56" t="n">
-        <v>-3.351322412490845</v>
+        <v>-1.253368139266968</v>
       </c>
       <c r="L56" t="n">
-        <v>-2.132004261016846</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="M56" t="n">
-        <v>-1.74028491973877</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="N56" t="n">
-        <v>-2.622514486312866</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="O56" t="n">
-        <v>-2.516365528106689</v>
+        <v>-1.292388916015625</v>
       </c>
       <c r="P56" t="n">
-        <v>-2.516365528106689</v>
+        <v>-1.292388916015625</v>
       </c>
     </row>
     <row r="57">
@@ -3489,805 +3489,49 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>INH_inhA5</t>
+          <t>INH_inhA6</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CCCGGCCGCGGCGAGACGATAGGGTGTC</t>
+          <t>TACCGATTTCGGCCCGGCCGCGGCGAGA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.660641193389893</v>
+        <v>-0.9627998471260071</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.842666625976562</v>
+        <v>-1.058958053588867</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.288044929504395</v>
+        <v>-1.014818906784058</v>
       </c>
       <c r="I57" t="n">
-        <v>-2.685995578765869</v>
+        <v>-1.226873397827148</v>
       </c>
       <c r="J57" t="n">
-        <v>-3.121716499328613</v>
+        <v>-1.563580751419067</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.67587685585022</v>
+        <v>-0.9410476684570312</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.985094785690308</v>
+        <v>-1.026803016662598</v>
       </c>
       <c r="M57" t="n">
-        <v>-1.842666387557983</v>
+        <v>-1.051726341247559</v>
       </c>
       <c r="N57" t="n">
-        <v>-2.352547883987427</v>
+        <v>-1.058958053588867</v>
       </c>
       <c r="O57" t="n">
-        <v>-2.288044929504395</v>
+        <v>-1.014818906784058</v>
       </c>
       <c r="P57" t="n">
-        <v>-2.288044929504395</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>56</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>INH_inhA5</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>201</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>ATTTCGGCCCGGCCGCGGCGAGACGATA</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>2.569934844970703</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-2.384963512420654</v>
-      </c>
-      <c r="H58" t="n">
-        <v>-2.523464918136597</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-3.382231712341309</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-2.869561195373535</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-2.832889080047607</v>
-      </c>
-      <c r="L58" t="n">
-        <v>-2.320130825042725</v>
-      </c>
-      <c r="M58" t="n">
-        <v>-2.384963512420654</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.257301807403564</v>
-      </c>
-      <c r="O58" t="n">
-        <v>-2.523464918136597</v>
-      </c>
-      <c r="P58" t="n">
-        <v>-2.523465156555176</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>57</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>INH_inhA5</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>202</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>TTTCGGCCCGGCCGCGGCGAGACGATAG</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>2.244132518768311</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-2.622062683105469</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-2.507508993148804</v>
-      </c>
-      <c r="I59" t="n">
-        <v>-3.247195243835449</v>
-      </c>
-      <c r="J59" t="n">
-        <v>-2.704002857208252</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-2.827816486358643</v>
-      </c>
-      <c r="L59" t="n">
-        <v>-2.246757984161377</v>
-      </c>
-      <c r="M59" t="n">
-        <v>-2.622062683105469</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.237698554992676</v>
-      </c>
-      <c r="O59" t="n">
-        <v>-2.507508993148804</v>
-      </c>
-      <c r="P59" t="n">
-        <v>-2.507508754730225</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>58</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>INH_inhA5</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>206</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>GGCCCGGCCGCGGCGAGACGATAGGGTG</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>2.182393312454224</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1.627214193344116</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-1.759842395782471</v>
-      </c>
-      <c r="I60" t="n">
-        <v>-2.14421534538269</v>
-      </c>
-      <c r="J60" t="n">
-        <v>-2.266437292098999</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-2.516902208328247</v>
-      </c>
-      <c r="L60" t="n">
-        <v>-1.777845621109009</v>
-      </c>
-      <c r="M60" t="n">
-        <v>-1.627214193344116</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-1.833346366882324</v>
-      </c>
-      <c r="O60" t="n">
-        <v>-1.759842395782471</v>
-      </c>
-      <c r="P60" t="n">
-        <v>-1.759842395782471</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>59</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>INH_inhA5</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>207</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>GCCCGGCCGCGGCGAGACGATAGGGTGT</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>2.15664529800415</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1.393139600753784</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-1.662275075912476</v>
-      </c>
-      <c r="I61" t="n">
-        <v>-1.918192625045776</v>
-      </c>
-      <c r="J61" t="n">
-        <v>-2.191468715667725</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-2.125790357589722</v>
-      </c>
-      <c r="L61" t="n">
-        <v>-1.671048164367676</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-1.393139600753784</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-1.756282091140747</v>
-      </c>
-      <c r="O61" t="n">
-        <v>-1.662275075912476</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-1.662274837493896</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>60</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>210</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>CGGCCGCGGCGAGACGATAGGCTGTCGG</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>4.135108947753906</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-3.120606899261475</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-3.544481754302979</v>
-      </c>
-      <c r="I62" t="n">
-        <v>-3.778480529785156</v>
-      </c>
-      <c r="J62" t="n">
-        <v>-3.792428731918335</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-3.809953689575195</v>
-      </c>
-      <c r="L62" t="n">
-        <v>-3.711014270782471</v>
-      </c>
-      <c r="M62" t="n">
-        <v>-3.631045818328857</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.120606660842896</v>
-      </c>
-      <c r="O62" t="n">
-        <v>-3.544481754302979</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-3.544481992721558</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>61</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>213</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>CCGCGGCGAGACGATAGGCTGTCGGGGT</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>3.548966884613037</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1.715092420578003</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-2.519303321838379</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-2.76441478729248</v>
-      </c>
-      <c r="J63" t="n">
-        <v>-3.167986154556274</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-3.347803592681885</v>
-      </c>
-      <c r="L63" t="n">
-        <v>-2.439871311187744</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-2.705749988555908</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-1.715092420578003</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-2.519303321838379</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-2.519303560256958</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>62</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>209</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>CCGGCCGCGGCGAGACGATAGGCTGTCG</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>3.546429395675659</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-2.69031023979187</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-2.970873355865479</v>
-      </c>
-      <c r="I64" t="n">
-        <v>-3.333928823471069</v>
-      </c>
-      <c r="J64" t="n">
-        <v>-3.590207576751709</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-3.518444061279297</v>
-      </c>
-      <c r="L64" t="n">
-        <v>-3.101921319961548</v>
-      </c>
-      <c r="M64" t="n">
-        <v>-3.079821348190308</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.690310478210449</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-2.970873355865479</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-2.970873594284058</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>63</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>205</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>CGGCCCGGCCGCGGCGAGACGATAGGCT</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>3.507944107055664</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-2.702764272689819</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-2.886786460876465</v>
-      </c>
-      <c r="I65" t="n">
-        <v>-3.651403188705444</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-3.58159065246582</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-3.430555582046509</v>
-      </c>
-      <c r="L65" t="n">
-        <v>-3.123033761978149</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-3.270166397094727</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.702764272689819</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-2.886786460876465</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-2.886786460876465</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>64</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>211</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>GGCCGCGGCGAGACGATAGGCTGTCGGG</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>3.42133092880249</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-2.372240304946899</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-2.858230113983154</v>
-      </c>
-      <c r="I66" t="n">
-        <v>-3.323323488235474</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-3.326790332794189</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-3.187379598617554</v>
-      </c>
-      <c r="L66" t="n">
-        <v>-2.757176399230957</v>
-      </c>
-      <c r="M66" t="n">
-        <v>-2.765463829040527</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.37224006652832</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-2.858230113983154</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-2.858230113983154</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>65</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>201</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ATTTCGGCCCGGCCGCGGCGAGACGATA</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>2.781702756881714</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-2.257301807403564</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-2.523464918136597</v>
-      </c>
-      <c r="I67" t="n">
-        <v>-3.382231712341309</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-2.869561195373535</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-2.832889080047607</v>
-      </c>
-      <c r="L67" t="n">
-        <v>-2.320130825042725</v>
-      </c>
-      <c r="M67" t="n">
-        <v>-2.384963512420654</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.257301807403564</v>
-      </c>
-      <c r="O67" t="n">
-        <v>-2.523464918136597</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-2.523465156555176</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>66</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>202</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>TTTCGGCCCGGCCGCGGCGAGACGATAG</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>2.701616764068604</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2.237698554992676</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-2.507508993148804</v>
-      </c>
-      <c r="I68" t="n">
-        <v>-3.247195243835449</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-2.704002857208252</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-2.827816486358643</v>
-      </c>
-      <c r="L68" t="n">
-        <v>-2.246757984161377</v>
-      </c>
-      <c r="M68" t="n">
-        <v>-2.622062683105469</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.237698554992676</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-2.507508993148804</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-2.507508754730225</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>67</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>208</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>CCCGGCCGCGGCGAGACGATAGGCTGTC</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>2.519055366516113</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1.708039999008179</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-1.968404769897461</v>
-      </c>
-      <c r="I69" t="n">
-        <v>-2.365994453430176</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-2.756446838378906</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-2.332809925079346</v>
-      </c>
-      <c r="L69" t="n">
-        <v>-2.008047103881836</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-2.120441436767578</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-1.708039999008179</v>
-      </c>
-      <c r="O69" t="n">
-        <v>-1.968404769897461</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-1.968404769897461</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>68</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>206</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>GGCCCGGCCGCGGCGAGACGATAGGCTG</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>2.471699476242065</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1.573089599609375</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-1.841988325119019</v>
-      </c>
-      <c r="I70" t="n">
-        <v>-2.202005624771118</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-2.32341480255127</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-2.558902263641357</v>
-      </c>
-      <c r="L70" t="n">
-        <v>-2.105681896209717</v>
-      </c>
-      <c r="M70" t="n">
-        <v>-2.184810161590576</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-1.573089599609375</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-1.841988325119019</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-1.841988325119019</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>69</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>INH_inhA6</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>207</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>GCCCGGCCGCGGCGAGACGATAGGCTGT</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>2.347403049468994</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1.303610324859619</v>
-      </c>
-      <c r="H71" t="n">
-        <v>-1.701023578643799</v>
-      </c>
-      <c r="I71" t="n">
-        <v>-1.953562021255493</v>
-      </c>
-      <c r="J71" t="n">
-        <v>-2.221489429473877</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-2.159599304199219</v>
-      </c>
-      <c r="L71" t="n">
-        <v>-1.885538101196289</v>
-      </c>
-      <c r="M71" t="n">
-        <v>-1.778730630874634</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-1.303610324859619</v>
-      </c>
-      <c r="O71" t="n">
-        <v>-1.701023578643799</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-1.701023578643799</v>
+        <v>-1.014818906784058</v>
       </c>
     </row>
   </sheetData>
